--- a/Data/GP2_Feedintake.xlsx
+++ b/Data/GP2_Feedintake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA94C6-0544-4DBE-AFAF-419AA81048D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A0AEA7-0302-44A7-9D05-DB8C147E6B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0A0BFAF5-E300-4036-8761-75E43C7CE86B}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{0A0BFAF5-E300-4036-8761-75E43C7CE86B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>leftoverfeed</t>
   </si>
   <si>
-    <t>feed_intake</t>
+    <t>adfi</t>
   </si>
   <si>
-    <t>adfi</t>
+    <t>groupintake</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:I1025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,7 +477,7 @@
     <col min="5" max="5" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -504,10 +504,10 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
